--- a/file/template/Format_upload_karyawan.xlsx
+++ b/file/template/Format_upload_karyawan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BAIS/file/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BAIS\file\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DDA265-404B-7E45-B5E6-3F0EDE70137D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15045"/>
   </bookViews>
   <sheets>
     <sheet name="upload" sheetId="1" r:id="rId1"/>
@@ -23,25 +22,16 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">upload!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Organization Data</t>
-  </si>
-  <si>
-    <t>Organization ID</t>
-  </si>
-  <si>
-    <t>ID Area</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -63,45 +53,6 @@
     <t>Tanggal Masuk</t>
   </si>
   <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Dept Account</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>ID Pos</t>
-  </si>
-  <si>
-    <t>ID Group</t>
-  </si>
-  <si>
-    <t>ID Section</t>
-  </si>
-  <si>
-    <t>ID Department</t>
-  </si>
-  <si>
-    <t>ID Department Account</t>
-  </si>
-  <si>
-    <t>ID Division</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
@@ -114,31 +65,16 @@
     <t>2022-01-13</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>BODY PLANT 1</t>
-  </si>
-  <si>
-    <t>BODY DIVISION</t>
-  </si>
-  <si>
-    <t>1-001-001</t>
-  </si>
-  <si>
-    <t>1-001</t>
-  </si>
-  <si>
     <t>div</t>
   </si>
+  <si>
+    <t>contoh (timpa dan insert untuk data yang benar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,14 +445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -524,14 +460,12 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="13" width="28" customWidth="1"/>
-    <col min="14" max="19" width="17.83203125" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="22" width="0" hidden="1" outlineLevel="1"/>
-    <col min="24" max="16384" width="8.83203125" hidden="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -541,87 +475,31 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -629,69 +507,26 @@
         <v>1234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1" t="str">
-        <f>IF(N3="-",IF(O3="-",IF(P3="-",IF(Q3="-",IF(S3="-","-",S3),Q3),P3),O3),N3)</f>
-        <v>1-001-001</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -699,32 +534,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D324BB63-AE7A-D646-9159-BEF2B19D16D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612A283-CB7A-AB4B-9747-7CA4E74066CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -733,42 +568,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A17DC0-F19E-3B45-8B90-073016749638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424F64E1-6E6E-5740-871C-9F793A643F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EEF17-B9E6-C147-AD4A-6E330CE20A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
